--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6745C-9AFC-4B03-8956-20DD111B226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B0997-C233-48FB-B6A3-9139F8F19C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>ev2</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>id|String</t>
-  </si>
-  <si>
-    <t>timeLimit|Bool</t>
   </si>
   <si>
     <t>givenTime|Int</t>
@@ -479,132 +476,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>180000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>180000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
         <v>180000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
+      <c r="B13">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -631,22 +610,22 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -691,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -736,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -781,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>5000</v>
@@ -804,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>10000</v>
@@ -827,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>40000</v>
@@ -841,7 +820,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -850,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>17500</v>
@@ -873,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>17500</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B0997-C233-48FB-B6A3-9139F8F19C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27234384-3E83-4307-BBB0-B3F1599D52F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>ev2</t>
   </si>
@@ -82,37 +82,25 @@
     <t>num|Int</t>
   </si>
   <si>
-    <t>free|Bool</t>
-  </si>
-  <si>
-    <t>serverItemId|String</t>
-  </si>
-  <si>
-    <t>buyingGold|Int</t>
-  </si>
-  <si>
-    <t>buyingGems|Int</t>
-  </si>
-  <si>
-    <t>buyingSpins|Int</t>
-  </si>
-  <si>
-    <t>Pack299Sequence</t>
-  </si>
-  <si>
-    <t>Pack599Sequence</t>
-  </si>
-  <si>
-    <t>Pack1499</t>
-  </si>
-  <si>
-    <t>Pack2999</t>
-  </si>
-  <si>
-    <t>Pack4999</t>
-  </si>
-  <si>
-    <t>Pack599</t>
+    <t>rewardType|String</t>
+  </si>
+  <si>
+    <t>rewardValue|String</t>
+  </si>
+  <si>
+    <t>rewardCount|Int</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>it</t>
   </si>
 </sst>
 </file>
@@ -478,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -594,18 +582,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -621,246 +606,225 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>15000</v>
-      </c>
-      <c r="F7">
-        <v>250</v>
-      </c>
-      <c r="G7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>5000</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>10000</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>40000</v>
-      </c>
-      <c r="F12">
         <v>400</v>
       </c>
-      <c r="G12">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>17500</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>17500</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
         <v>400</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27234384-3E83-4307-BBB0-B3F1599D52F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE60A0D-9A31-42DE-ACA2-CBE480C574BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="765" yWindow="690" windowWidth="13515" windowHeight="14265" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>ev2</t>
   </si>
@@ -100,7 +100,35 @@
     <t>EN</t>
   </si>
   <si>
-    <t>it</t>
+    <t>referEvent|String</t>
+  </si>
+  <si>
+    <t>startYear|Int</t>
+  </si>
+  <si>
+    <t>startMonth|Int</t>
+  </si>
+  <si>
+    <t>startDay|Int</t>
+  </si>
+  <si>
+    <t>endYear|Int</t>
+  </si>
+  <si>
+    <t>endMonth|Int</t>
+  </si>
+  <si>
+    <t>endDay|Int</t>
+  </si>
+  <si>
+    <t>triggerCondition|Int</t>
+  </si>
+  <si>
+    <t>ev13</t>
+  </si>
+  <si>
+    <t>coolTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,114 +492,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>86400</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>180000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>691200</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2022</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>180000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>172800</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2022</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>180000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -582,9 +707,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -618,10 +743,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,10 +760,10 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -669,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -689,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -703,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,7 +848,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>400</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,35 +862,35 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -774,32 +899,32 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -808,23 +933,346 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33">
         <v>400</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE60A0D-9A31-42DE-ACA2-CBE480C574BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852A2AEF-EDEC-4B62-A228-C65A636AA6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="690" windowWidth="13515" windowHeight="14265" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
   <si>
     <t>ev2</t>
   </si>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -707,9 +707,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>600</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -1273,7 +1273,24 @@
         <v>19</v>
       </c>
       <c r="E33">
-        <v>400</v>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852A2AEF-EDEC-4B62-A228-C65A636AA6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB60D8C-9500-41F6-B1FB-9809CCF3E819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
   <si>
     <t>ev2</t>
   </si>
@@ -128,7 +128,12 @@
   </si>
   <si>
     <t>coolTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subTriggerCondition|Int</t>
+  </si>
+  <si>
+    <t>prob|Float</t>
   </si>
 </sst>
 </file>
@@ -492,15 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -534,8 +537,14 @@
       <c r="K1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -548,8 +557,14 @@
       <c r="K2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -559,8 +574,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -591,8 +612,14 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -623,8 +650,14 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -632,7 +665,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -640,7 +673,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -648,7 +681,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -656,7 +689,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -664,7 +697,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -672,7 +705,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -680,7 +713,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -688,7 +721,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -709,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB60D8C-9500-41F6-B1FB-9809CCF3E819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B34242-1608-4485-AF0E-B7895C7C48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t>ev2</t>
   </si>
@@ -100,9 +100,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>referEvent|String</t>
-  </si>
-  <si>
     <t>startYear|Int</t>
   </si>
   <si>
@@ -134,6 +131,18 @@
   </si>
   <si>
     <t>prob|Float</t>
+  </si>
+  <si>
+    <t>eventSub|String</t>
+  </si>
+  <si>
+    <t>oneofthree</t>
+  </si>
+  <si>
+    <t>conti</t>
+  </si>
+  <si>
+    <t>oneplustwo</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -508,40 +519,40 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -571,6 +582,9 @@
       <c r="C3">
         <v>300</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -585,6 +599,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
       <c r="C4">
         <v>180000</v>
       </c>
@@ -622,6 +639,9 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>180000</v>
@@ -661,8 +681,14 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
       <c r="C6">
         <v>600</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -672,6 +698,9 @@
       <c r="C7">
         <v>600</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -680,6 +709,9 @@
       <c r="C8">
         <v>600</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -688,6 +720,9 @@
       <c r="C9">
         <v>600</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -696,6 +731,9 @@
       <c r="C10">
         <v>600</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -704,6 +742,9 @@
       <c r="C11">
         <v>600</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -712,6 +753,9 @@
       <c r="C12">
         <v>180000</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -720,16 +764,19 @@
       <c r="C13">
         <v>600</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>420</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B34242-1608-4485-AF0E-B7895C7C48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2848FCD-5A0A-4C86-B75F-A37C07476EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-26460" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>ev2</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>oneplustwo</t>
+  </si>
+  <si>
+    <t>productCount|Int</t>
   </si>
 </sst>
 </file>
@@ -506,15 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -522,80 +523,89 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>86400</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>300</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -603,40 +613,43 @@
         <v>33</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>180000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>691200</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2022</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2022</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>16</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -644,40 +657,43 @@
         <v>34</v>
       </c>
       <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>180000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>172800</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2022</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>28</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -685,97 +701,124 @@
         <v>35</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>600</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>600</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>600</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>600</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>600</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>600</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>180000</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>600</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>420</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2848FCD-5A0A-4C86-B75F-A37C07476EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C09719F-2E8B-4431-A3FC-00556B774683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>ev2</t>
   </si>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -830,11 +830,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1027,10 +1025,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1039,15 +1037,15 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1056,15 +1054,15 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1073,15 +1071,15 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1090,15 +1088,15 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1107,15 +1105,15 @@
         <v>19</v>
       </c>
       <c r="E16">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1124,32 +1122,32 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>450</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>35000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1158,15 +1156,15 @@
         <v>19</v>
       </c>
       <c r="E19">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -1175,29 +1173,29 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>30000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1209,12 +1207,12 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1226,15 +1224,15 @@
         <v>19</v>
       </c>
       <c r="E23">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1243,176 +1241,6 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34">
         <v>100</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C09719F-2E8B-4431-A3FC-00556B774683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA271D-7780-40D8-8B38-58D83CF2B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
     <sheet name="EventRewardTable" sheetId="2" r:id="rId2"/>
+    <sheet name="EnergyUsePaybackTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>ev2</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>productCount|Int</t>
+  </si>
+  <si>
+    <t>use|Int</t>
+  </si>
+  <si>
+    <t>payback|Int</t>
   </si>
 </sst>
 </file>
@@ -832,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1248,4 +1255,74 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06080CBE-0BF8-4373-BF22-7E667F747A57}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5000</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12000</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA271D-7780-40D8-8B38-58D83CF2B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5893A59-0846-41EE-AF1C-40FCFB9F0244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
   <si>
     <t>ev2</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>payback|Int</t>
+  </si>
+  <si>
+    <t>energypayback</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -664,7 +667,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>180000</v>
@@ -721,14 +724,44 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>604800</v>
+      </c>
+      <c r="E7">
+        <v>2592000</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>2022</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="N7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -778,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>600</v>
@@ -1261,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06080CBE-0BF8-4373-BF22-7E667F747A57}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5893A59-0846-41EE-AF1C-40FCFB9F0244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB63565-78FC-4F95-9976-5D679640C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>ev2</t>
   </si>
@@ -521,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -714,10 +716,37 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>600</v>
+        <v>64800</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>86400</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>2022</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -870,9 +899,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1282,6 +1313,193 @@
       </c>
       <c r="E24">
         <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB63565-78FC-4F95-9976-5D679640C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4B2DF-1771-436F-A2FB-33A0EBF89E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="45">
   <si>
     <t>ev2</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>energypayback</t>
+  </si>
+  <si>
+    <t>seventotalgroup1</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>seventotalgroup2</t>
+  </si>
+  <si>
+    <t>seventotalgroup3</t>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
   </si>
 </sst>
 </file>
@@ -899,13 +914,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -926,7 +945,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -938,12 +957,12 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -955,15 +974,15 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>35000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -972,15 +991,15 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -989,16 +1008,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -1006,15 +1025,15 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>20000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1023,49 +1042,49 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>35000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1074,24 +1093,24 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,16 +1118,16 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,16 +1135,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>25000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1142,15 +1161,15 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1159,15 +1178,15 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1176,15 +1195,15 @@
         <v>19</v>
       </c>
       <c r="E16">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1193,15 +1212,15 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1210,15 +1229,15 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1227,15 +1246,15 @@
         <v>19</v>
       </c>
       <c r="E19">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -1249,27 +1268,27 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -1278,41 +1297,41 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>50000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1500,6 +1519,618 @@
       </c>
       <c r="E35">
         <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4B2DF-1771-436F-A2FB-33A0EBF89E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF147CD-4170-45B6-AD8C-1E3269E4A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,6 +599,24 @@
       <c r="E2">
         <v>86400</v>
       </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2022</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <v>3</v>
       </c>
@@ -622,6 +640,24 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2022</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <v>0</v>
       </c>
@@ -652,7 +688,7 @@
         <v>2022</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -661,10 +697,10 @@
         <v>2022</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -696,7 +732,7 @@
         <v>2022</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -705,7 +741,7 @@
         <v>2022</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>28</v>
@@ -749,7 +785,7 @@
         <v>2022</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -793,7 +829,7 @@
         <v>2022</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>28</v>
@@ -813,13 +849,40 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>600</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>43200</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2022</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -833,7 +896,34 @@
         <v>600</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>43200</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2022</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -855,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>600</v>
@@ -916,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF147CD-4170-45B6-AD8C-1E3269E4A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2BB8D6-C139-408C-A362-C0F823C072DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
         <v>2022</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>2022</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>2022</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>2022</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>2022</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>2022</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>2022</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -741,7 +741,7 @@
         <v>2022</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <v>28</v>
@@ -829,7 +829,7 @@
         <v>2022</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7">
         <v>28</v>
@@ -861,7 +861,7 @@
         <v>2022</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>2022</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>2022</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>2022</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -939,6 +939,33 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2022</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -953,6 +980,33 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2022</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -962,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>180000</v>
+        <v>600</v>
       </c>
       <c r="E12">
         <v>0</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2BB8D6-C139-408C-A362-C0F823C072DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1DE30-A34A-4F1B-A77F-7C5F267600AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,7 @@
         <v>2022</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -993,10 +993,10 @@
         <v>2022</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1DE30-A34A-4F1B-A77F-7C5F267600AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E14A1-C455-4B4D-A53E-F04B8AC7FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -855,7 +855,7 @@
         <v>600</v>
       </c>
       <c r="E8">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -896,7 +896,7 @@
         <v>600</v>
       </c>
       <c r="E9">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>2022</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E14A1-C455-4B4D-A53E-F04B8AC7FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310E89FE-BEFC-4451-8453-BE98BF52587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -855,7 +853,7 @@
         <v>600</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F8">
         <v>2022</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310E89FE-BEFC-4451-8453-BE98BF52587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBAC254-D6D3-4D1D-B1C6-2082FC54F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -601,16 +603,16 @@
         <v>2022</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -642,16 +644,16 @@
         <v>2022</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -686,7 +688,7 @@
         <v>2022</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -698,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -730,7 +732,7 @@
         <v>2022</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -739,7 +741,7 @@
         <v>2022</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>28</v>
@@ -774,7 +776,7 @@
         <v>2022</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>25</v>
@@ -783,7 +785,7 @@
         <v>2022</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -818,7 +820,7 @@
         <v>2022</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -827,7 +829,7 @@
         <v>2022</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>28</v>
@@ -859,7 +861,7 @@
         <v>2022</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -871,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -900,7 +902,7 @@
         <v>2022</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -912,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -941,7 +943,7 @@
         <v>2022</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -953,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -982,7 +984,7 @@
         <v>2022</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -994,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>1</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBAC254-D6D3-4D1D-B1C6-2082FC54F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37B38D-35AA-485B-9F76-1D782457D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="51">
   <si>
     <t>ev2</t>
   </si>
@@ -170,7 +170,25 @@
     <t>seventotalgroup3</t>
   </si>
   <si>
-    <t>Cash_sSevenTotal</t>
+    <t>Cash_sSevenSlot1</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot3</t>
+  </si>
+  <si>
+    <t>Item_cSevenTotal</t>
+  </si>
+  <si>
+    <t>festivalgroup1</t>
+  </si>
+  <si>
+    <t>Item_cFestival</t>
+  </si>
+  <si>
+    <t>festivalgroup2</t>
+  </si>
+  <si>
+    <t>festivalgroup3</t>
   </si>
 </sst>
 </file>
@@ -536,9 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -591,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -1058,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="E39">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1829,10 +1845,10 @@
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1931,7 +1947,7 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <v>400</v>
@@ -2033,7 +2049,7 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <v>1200</v>
@@ -2135,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -2237,7 +2253,7 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>1000</v>
@@ -2275,6 +2291,618 @@
       </c>
       <c r="E71">
         <v>60000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37B38D-35AA-485B-9F76-1D782457D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BCA3A0-6614-460B-B556-EADC0B1C39C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="49">
   <si>
     <t>ev2</t>
   </si>
@@ -170,25 +170,19 @@
     <t>seventotalgroup3</t>
   </si>
   <si>
-    <t>Cash_sSevenSlot1</t>
-  </si>
-  <si>
-    <t>Cash_sSevenSlot3</t>
-  </si>
-  <si>
-    <t>Item_cSevenTotal</t>
-  </si>
-  <si>
     <t>festivalgroup1</t>
   </si>
   <si>
-    <t>Item_cFestival</t>
-  </si>
-  <si>
     <t>festivalgroup2</t>
   </si>
   <si>
     <t>festivalgroup3</t>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
+  </si>
+  <si>
+    <t>Cash_sFestivalTotal</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1743,10 +1737,10 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1845,10 +1839,10 @@
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1947,7 +1941,7 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>400</v>
@@ -2049,7 +2043,7 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57">
         <v>1200</v>
@@ -2151,7 +2145,7 @@
         <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -2253,7 +2247,7 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69">
         <v>1000</v>
@@ -2295,7 +2289,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2312,7 +2306,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2329,7 +2323,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -2346,7 +2340,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -2363,7 +2357,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -2397,7 +2391,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -2414,7 +2408,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -2431,7 +2425,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -2448,7 +2442,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -2465,7 +2459,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>11</v>
@@ -2482,7 +2476,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B83">
         <v>12</v>
@@ -2499,7 +2493,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2516,7 +2510,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2533,7 +2527,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -2550,7 +2544,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -2567,7 +2561,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -2584,7 +2578,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -2601,7 +2595,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -2618,7 +2612,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -2635,7 +2629,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -2652,7 +2646,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -2669,7 +2663,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B94">
         <v>11</v>
@@ -2686,7 +2680,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B95">
         <v>12</v>
@@ -2703,7 +2697,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2720,7 +2714,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2737,7 +2731,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -2754,7 +2748,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -2771,7 +2765,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -2788,7 +2782,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -2805,7 +2799,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -2822,7 +2816,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -2839,7 +2833,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -2856,7 +2850,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B106">
         <v>11</v>
@@ -2890,7 +2884,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B107">
         <v>12</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BCA3A0-6614-460B-B556-EADC0B1C39C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38364945-A302-4987-B5E6-A41EDCCCBFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -610,10 +612,10 @@
         <v>86400</v>
       </c>
       <c r="F2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -622,7 +624,7 @@
         <v>2023</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -651,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -663,7 +665,7 @@
         <v>2023</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -695,22 +697,22 @@
         <v>691200</v>
       </c>
       <c r="F4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -739,22 +741,22 @@
         <v>172800</v>
       </c>
       <c r="F5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -783,22 +785,22 @@
         <v>86400</v>
       </c>
       <c r="F6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -827,22 +829,22 @@
         <v>2592000</v>
       </c>
       <c r="F7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -868,22 +870,22 @@
         <v>600</v>
       </c>
       <c r="F8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -909,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -950,22 +952,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -991,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1070,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38364945-A302-4987-B5E6-A41EDCCCBFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D761F-4C21-4D41-8AB3-656A7604DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="49">
   <si>
     <t>ev2</t>
   </si>
@@ -548,9 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -644,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -1025,13 +1023,40 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>600</v>
       </c>
       <c r="E12">
         <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2023</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2023</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1039,13 +1064,40 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>600</v>
       </c>
       <c r="E13">
         <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2023</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2023</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1070,9 +1122,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1147,24 +1199,24 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1172,16 +1224,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>25000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1189,16 +1241,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1206,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1215,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1223,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>15000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1240,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1257,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1266,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1274,16 +1326,16 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>30000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1291,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>150</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1308,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1317,15 +1369,15 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1334,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1342,16 +1394,16 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>35000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1359,16 +1411,16 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>170</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1376,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1385,7 +1437,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1393,16 +1445,16 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>20000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1410,16 +1462,16 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>150</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1427,16 +1479,16 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>35000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1444,16 +1496,16 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1461,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1470,7 +1522,7 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1478,33 +1530,33 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>20000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>350</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1512,16 +1564,16 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>80000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1529,16 +1581,16 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>800</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1546,16 +1598,16 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>100000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1563,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -1572,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1580,16 +1632,16 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30">
-        <v>500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1597,16 +1649,16 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>70000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1614,16 +1666,16 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>450</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1631,16 +1683,16 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>60000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1648,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -1657,7 +1709,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>90000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1665,24 +1717,24 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>650</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1691,15 +1743,15 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -1708,15 +1760,15 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -1725,41 +1777,41 @@
         <v>19</v>
       </c>
       <c r="E38">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1767,16 +1819,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>20000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1784,7 +1836,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -1793,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="E42">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1801,16 +1853,16 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1818,16 +1870,16 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E44">
-        <v>40000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1835,16 +1887,16 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1852,16 +1904,16 @@
         <v>40</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1869,24 +1921,24 @@
         <v>40</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>60000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -1900,70 +1952,70 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E50">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>75</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1971,16 +2023,16 @@
         <v>42</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>20000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -1997,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="E54">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2005,16 +2057,16 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2022,16 +2074,16 @@
         <v>42</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E56">
-        <v>40000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,16 +2091,16 @@
         <v>42</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>1200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2056,16 +2108,16 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,24 +2125,24 @@
         <v>42</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>60000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -2104,70 +2156,70 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E62">
-        <v>10000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>75</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2175,16 +2227,16 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>20000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,7 +2244,7 @@
         <v>43</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -2201,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="E66">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,16 +2278,16 @@
         <v>43</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E68">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2243,16 +2295,16 @@
         <v>43</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2260,16 +2312,16 @@
         <v>43</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,75 +2329,75 @@
         <v>43</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>60000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>75</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E74">
-        <v>20000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -2354,24 +2406,24 @@
         <v>20</v>
       </c>
       <c r="E75">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>100</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2379,16 +2431,16 @@
         <v>44</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E77">
-        <v>40000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,16 +2448,16 @@
         <v>44</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>1500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2413,16 +2465,16 @@
         <v>44</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2430,16 +2482,16 @@
         <v>44</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80">
-        <v>60000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2447,7 +2499,7 @@
         <v>44</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -2464,16 +2516,16 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2481,30 +2533,30 @@
         <v>44</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E83">
-        <v>10000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -2512,44 +2564,44 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>75</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>20000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -2558,24 +2610,24 @@
         <v>20</v>
       </c>
       <c r="E87">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2583,16 +2635,16 @@
         <v>45</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E89">
-        <v>40000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2600,16 +2652,16 @@
         <v>45</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>1500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2617,16 +2669,16 @@
         <v>45</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2634,16 +2686,16 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92">
-        <v>60000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2651,7 +2703,7 @@
         <v>45</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -2668,16 +2720,16 @@
         <v>45</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2685,30 +2737,30 @@
         <v>45</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E95">
-        <v>10000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>500</v>
@@ -2716,44 +2768,44 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>75</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E98">
-        <v>20000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -2762,24 +2814,24 @@
         <v>20</v>
       </c>
       <c r="E99">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2787,16 +2839,16 @@
         <v>46</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E101">
-        <v>40000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2804,16 +2856,16 @@
         <v>46</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>1500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2821,16 +2873,16 @@
         <v>46</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2838,16 +2890,16 @@
         <v>46</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <v>60000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2855,7 +2907,7 @@
         <v>46</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
@@ -2872,16 +2924,16 @@
         <v>46</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2889,15 +2941,100 @@
         <v>46</v>
       </c>
       <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112">
         <v>12</v>
       </c>
-      <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107">
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
         <v>10000</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D761F-4C21-4D41-8AB3-656A7604DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334A3611-56EE-4569-95E7-EE8C47A469C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="51">
   <si>
     <t>ev2</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Cash_sFestivalTotal</t>
+  </si>
+  <si>
+    <t>firstpurchase</t>
+  </si>
+  <si>
+    <t>Spell_0003</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1816,24 +1822,24 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1845,12 +1851,12 @@
         <v>20</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1862,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="E43">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1870,16 +1876,16 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1887,7 +1893,7 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -1896,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="E45">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1904,7 +1910,7 @@
         <v>40</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -1913,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="E46">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1921,16 +1927,16 @@
         <v>40</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1938,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -1947,7 +1953,7 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1955,7 +1961,7 @@
         <v>40</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -1964,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="E49">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1972,16 +1978,16 @@
         <v>40</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,7 +1995,7 @@
         <v>40</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -1998,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="E51">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2006,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2015,32 +2021,32 @@
         <v>19</v>
       </c>
       <c r="E52">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2049,15 +2055,15 @@
         <v>20</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -2066,7 +2072,7 @@
         <v>19</v>
       </c>
       <c r="E55">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2074,16 +2080,16 @@
         <v>42</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2091,7 +2097,7 @@
         <v>42</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -2100,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="E57">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2108,7 +2114,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -2117,7 +2123,7 @@
         <v>19</v>
       </c>
       <c r="E58">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2125,16 +2131,16 @@
         <v>42</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E59">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2142,7 +2148,7 @@
         <v>42</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -2151,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="E60">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2159,7 +2165,7 @@
         <v>42</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2168,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="E61">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2176,16 +2182,16 @@
         <v>42</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2193,7 +2199,7 @@
         <v>42</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -2202,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="E63">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2210,7 +2216,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -2219,32 +2225,32 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -2253,15 +2259,15 @@
         <v>20</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -2270,7 +2276,7 @@
         <v>19</v>
       </c>
       <c r="E67">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2278,16 +2284,16 @@
         <v>43</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2295,7 +2301,7 @@
         <v>43</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -2304,7 +2310,7 @@
         <v>20</v>
       </c>
       <c r="E69">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2312,7 +2318,7 @@
         <v>43</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -2321,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="E70">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2329,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E71">
         <v>300</v>
@@ -2346,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -2355,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="E72">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2363,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -2372,7 +2378,7 @@
         <v>19</v>
       </c>
       <c r="E73">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2380,16 +2386,16 @@
         <v>43</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2397,7 +2403,7 @@
         <v>43</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -2406,7 +2412,7 @@
         <v>20</v>
       </c>
       <c r="E75">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2414,7 +2420,7 @@
         <v>43</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -2423,32 +2429,32 @@
         <v>19</v>
       </c>
       <c r="E76">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
         <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E77">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2457,15 +2463,15 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <v>75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2474,7 +2480,7 @@
         <v>19</v>
       </c>
       <c r="E79">
-        <v>20000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2482,16 +2488,16 @@
         <v>44</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,7 +2505,7 @@
         <v>44</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -2508,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="E81">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2516,7 +2522,7 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -2525,7 +2531,7 @@
         <v>19</v>
       </c>
       <c r="E82">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2533,16 +2539,16 @@
         <v>44</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2550,7 +2556,7 @@
         <v>44</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -2559,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="E84">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2567,7 +2573,7 @@
         <v>44</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -2576,7 +2582,7 @@
         <v>19</v>
       </c>
       <c r="E85">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2584,16 +2590,16 @@
         <v>44</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E86">
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2601,7 +2607,7 @@
         <v>44</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -2610,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2618,7 +2624,7 @@
         <v>44</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -2627,32 +2633,32 @@
         <v>19</v>
       </c>
       <c r="E88">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -2661,15 +2667,15 @@
         <v>20</v>
       </c>
       <c r="E90">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -2678,7 +2684,7 @@
         <v>19</v>
       </c>
       <c r="E91">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2686,16 +2692,16 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E92">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2703,7 +2709,7 @@
         <v>45</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -2712,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="E93">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2720,7 +2726,7 @@
         <v>45</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -2729,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="E94">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2737,16 +2743,16 @@
         <v>45</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E95">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2754,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -2763,7 +2769,7 @@
         <v>20</v>
       </c>
       <c r="E96">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2771,7 +2777,7 @@
         <v>45</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -2780,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="E97">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2788,16 +2794,16 @@
         <v>45</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E98">
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2805,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -2814,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2822,7 +2828,7 @@
         <v>45</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -2831,32 +2837,32 @@
         <v>19</v>
       </c>
       <c r="E100">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E101">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -2865,15 +2871,15 @@
         <v>20</v>
       </c>
       <c r="E102">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -2882,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="E103">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2890,16 +2896,16 @@
         <v>46</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E104">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2907,7 +2913,7 @@
         <v>46</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
@@ -2916,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2924,7 +2930,7 @@
         <v>46</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -2933,7 +2939,7 @@
         <v>19</v>
       </c>
       <c r="E106">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2941,16 +2947,16 @@
         <v>46</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E107">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2958,7 +2964,7 @@
         <v>46</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
@@ -2967,7 +2973,7 @@
         <v>20</v>
       </c>
       <c r="E108">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2975,7 +2981,7 @@
         <v>46</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
@@ -2984,7 +2990,7 @@
         <v>19</v>
       </c>
       <c r="E109">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,16 +2998,16 @@
         <v>46</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E110">
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3009,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="B111">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>18</v>
@@ -3018,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3026,15 +3032,66 @@
         <v>46</v>
       </c>
       <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115">
         <v>12</v>
       </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112">
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
         <v>10000</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334A3611-56EE-4569-95E7-EE8C47A469C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E34DC-6B88-45B8-BA40-8E9D24C8285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="54">
   <si>
     <t>ev2</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Spell_0003</t>
+  </si>
+  <si>
+    <t>analysisboost</t>
+  </si>
+  <si>
+    <t>Item_cAnalysisBoost</t>
+  </si>
+  <si>
+    <t>DI</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3093,6 +3102,74 @@
       </c>
       <c r="E115">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E34DC-6B88-45B8-BA40-8E9D24C8285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF232D15-D83D-454E-BA01-FEC937F4AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="0" yWindow="1095" windowWidth="24000" windowHeight="11700" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="63">
   <si>
     <t>ev2</t>
   </si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>acquiredspell</t>
+  </si>
+  <si>
+    <t>ev14</t>
+  </si>
+  <si>
+    <t>unacquiredspell</t>
+  </si>
+  <si>
+    <t>ev15</t>
+  </si>
+  <si>
+    <t>acquiredcompanion</t>
+  </si>
+  <si>
+    <t>ev16</t>
+  </si>
+  <si>
+    <t>acquiredcompanionpp</t>
+  </si>
+  <si>
+    <t>ev17</t>
+  </si>
+  <si>
+    <t>unacquiredcompanion</t>
   </si>
 </sst>
 </file>
@@ -561,9 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1119,14 +1148,220 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>86400</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2023</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>86400</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>2023</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2023</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>420</v>
-      </c>
-      <c r="E14">
+      <c r="D16">
+        <v>86400</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>2023</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2023</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
         <v>0</v>
+      </c>
+      <c r="D17">
+        <v>86400</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>2023</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2023</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>86400</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>2023</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2023</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF232D15-D83D-454E-BA01-FEC937F4AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F777CC2-C6F4-40FC-9F91-4B5068BA901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1095" windowWidth="24000" windowHeight="11700" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -590,9 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1196,7 +1194,7 @@
         <v>56</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>86400</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F777CC2-C6F4-40FC-9F91-4B5068BA901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584145FC-2B6F-4617-A417-4C562BBDF17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -590,9 +590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -761,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -805,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -849,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -893,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -934,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -975,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1016,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1057,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1098,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1139,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1147,7 +1152,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1183,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1191,7 +1196,7 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1227,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1235,10 +1240,10 @@
         <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>86400</v>
@@ -1271,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1279,10 +1284,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>86400</v>
@@ -1315,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1323,10 +1328,10 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>86400</v>
@@ -1359,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584145FC-2B6F-4617-A417-4C562BBDF17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DB380-1E2E-4832-A147-D7A77B5D7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -188,15 +188,9 @@
     <t>firstpurchase</t>
   </si>
   <si>
-    <t>Spell_0003</t>
-  </si>
-  <si>
     <t>analysisboost</t>
   </si>
   <si>
-    <t>Item_cAnalysisBoost</t>
-  </si>
-  <si>
     <t>DI</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>unacquiredcompanion</t>
+  </si>
+  <si>
+    <t>Spell_0018</t>
+  </si>
+  <si>
+    <t>Cash_sAnalysisBoost</t>
   </si>
 </sst>
 </file>
@@ -590,9 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1152,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1193,10 +1191,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1237,10 +1235,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1281,10 +1279,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1325,10 +1323,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1377,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2078,7 +2076,7 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3344,7 +3342,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3353,15 +3351,15 @@
         <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E116">
-        <v>2592000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -3378,7 +3376,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -3395,7 +3393,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -3404,7 +3402,7 @@
         <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E119">
         <v>750</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DB380-1E2E-4832-A147-D7A77B5D7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45324D-10EC-48E6-9133-BA9E83FEC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -667,7 +669,7 @@
         <v>2023</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -708,7 +710,7 @@
         <v>2023</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -752,7 +754,7 @@
         <v>2023</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -796,7 +798,7 @@
         <v>2023</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -840,7 +842,7 @@
         <v>2023</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -884,7 +886,7 @@
         <v>2023</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -925,7 +927,7 @@
         <v>2023</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -966,7 +968,7 @@
         <v>2023</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1007,7 +1009,7 @@
         <v>2023</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,7 +1050,7 @@
         <v>2023</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1089,7 +1091,7 @@
         <v>2023</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1130,7 +1132,7 @@
         <v>2023</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1174,7 +1176,7 @@
         <v>2023</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1218,7 +1220,7 @@
         <v>2023</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1262,7 +1264,7 @@
         <v>2023</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1306,7 +1308,7 @@
         <v>2023</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1350,7 +1352,7 @@
         <v>2023</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1375,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45324D-10EC-48E6-9133-BA9E83FEC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288EBA75-77C3-4C21-803E-F631A16D523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="64">
   <si>
     <t>ev2</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Cash_sAnalysisBoost</t>
+  </si>
+  <si>
+    <t>ev99</t>
   </si>
 </sst>
 </file>
@@ -588,11 +591,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1364,6 +1365,47 @@
         <v>4</v>
       </c>
       <c r="N18">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>604800</v>
+      </c>
+      <c r="E19">
+        <v>604800</v>
+      </c>
+      <c r="F19">
+        <v>2023</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2023</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>0.33329999999999999</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288EBA75-77C3-4C21-803E-F631A16D523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D6B5E-AA04-44C3-B5B3-6A97654F8055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -648,8 +650,8 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -673,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -689,8 +691,8 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -714,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -733,8 +735,8 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D4">
         <v>180000</v>
@@ -758,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -777,8 +779,8 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D5">
         <v>180000</v>
@@ -802,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -821,8 +823,8 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D6">
         <v>64800</v>
@@ -846,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -865,8 +867,8 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D7">
         <v>604800</v>
@@ -890,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -906,8 +908,8 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D8">
         <v>600</v>
@@ -931,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -947,8 +949,8 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D9">
         <v>600</v>
@@ -972,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -988,8 +990,8 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D10">
         <v>600</v>
@@ -1013,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1029,8 +1031,8 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D11">
         <v>600</v>
@@ -1054,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1070,8 +1072,8 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D12">
         <v>600</v>
@@ -1095,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1111,8 +1113,8 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D13">
         <v>600</v>
@@ -1136,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1155,8 +1157,8 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D14">
         <v>86400</v>
@@ -1180,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1199,8 +1201,8 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D15">
         <v>86400</v>
@@ -1224,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1243,8 +1245,8 @@
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D16">
         <v>86400</v>
@@ -1268,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1287,8 +1289,8 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D17">
         <v>86400</v>
@@ -1312,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1331,8 +1333,8 @@
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D18">
         <v>86400</v>
@@ -1356,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1372,8 +1374,8 @@
       <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D19">
         <v>604800</v>
@@ -1397,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L19">
         <v>1</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D6B5E-AA04-44C3-B5B3-6A97654F8055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFA1A3F-1590-47F4-BE2E-A0DE008338E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -650,8 +650,8 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="e">
-        <v>#VALUE!</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -691,8 +691,8 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="e">
-        <v>#VALUE!</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -735,8 +735,8 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="e">
-        <v>#VALUE!</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>180000</v>
@@ -779,8 +779,8 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="e">
-        <v>#VALUE!</v>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>180000</v>
@@ -823,8 +823,8 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="e">
-        <v>#VALUE!</v>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>64800</v>
@@ -867,8 +867,8 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="e">
-        <v>#VALUE!</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>604800</v>
@@ -908,8 +908,8 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="e">
-        <v>#VALUE!</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>600</v>
@@ -949,8 +949,8 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="e">
-        <v>#VALUE!</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>600</v>
@@ -990,8 +990,8 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="e">
-        <v>#VALUE!</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>600</v>
@@ -1031,8 +1031,8 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="e">
-        <v>#VALUE!</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>600</v>
@@ -1072,8 +1072,8 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="e">
-        <v>#VALUE!</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>600</v>
@@ -1113,8 +1113,8 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="e">
-        <v>#VALUE!</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>600</v>
@@ -1157,8 +1157,8 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="e">
-        <v>#VALUE!</v>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14">
         <v>86400</v>
@@ -1201,8 +1201,8 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="e">
-        <v>#VALUE!</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
         <v>86400</v>
@@ -1245,8 +1245,8 @@
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="e">
-        <v>#VALUE!</v>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
         <v>86400</v>
@@ -1289,8 +1289,8 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="e">
-        <v>#VALUE!</v>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17">
         <v>86400</v>
@@ -1333,8 +1333,8 @@
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="e">
-        <v>#VALUE!</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>86400</v>
@@ -1374,8 +1374,8 @@
       <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="e">
-        <v>#VALUE!</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>604800</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFA1A3F-1590-47F4-BE2E-A0DE008338E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B9FF8-5217-4218-A410-E626AA0A5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
         <v>2023</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>31</v>
@@ -713,7 +713,7 @@
         <v>2023</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>31</v>
@@ -757,7 +757,7 @@
         <v>2023</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <v>31</v>
@@ -801,7 +801,7 @@
         <v>2023</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>31</v>
@@ -845,7 +845,7 @@
         <v>2023</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>31</v>
@@ -889,7 +889,7 @@
         <v>2023</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>31</v>
@@ -930,7 +930,7 @@
         <v>2023</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K8">
         <v>31</v>
@@ -971,7 +971,7 @@
         <v>2023</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K9">
         <v>31</v>
@@ -1012,7 +1012,7 @@
         <v>2023</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K10">
         <v>31</v>
@@ -1053,7 +1053,7 @@
         <v>2023</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K11">
         <v>31</v>
@@ -1094,7 +1094,7 @@
         <v>2023</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K12">
         <v>31</v>
@@ -1135,7 +1135,7 @@
         <v>2023</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>31</v>
@@ -1179,7 +1179,7 @@
         <v>2023</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K14">
         <v>31</v>
@@ -1223,7 +1223,7 @@
         <v>2023</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K15">
         <v>31</v>
@@ -1267,7 +1267,7 @@
         <v>2023</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K16">
         <v>31</v>
@@ -1311,7 +1311,7 @@
         <v>2023</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K17">
         <v>31</v>
@@ -1355,7 +1355,7 @@
         <v>2023</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K18">
         <v>31</v>
@@ -1396,7 +1396,7 @@
         <v>2023</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K19">
         <v>31</v>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B9FF8-5217-4218-A410-E626AA0A5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E734C43-1A1C-424A-9EA9-013CA488E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2159,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="E43">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E734C43-1A1C-424A-9EA9-013CA488E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208585C0-071B-4CB9-98F3-3CEB63C028B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="66">
   <si>
     <t>ev2</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>ev99</t>
+  </si>
+  <si>
+    <t>Cash_sSpellGacha</t>
+  </si>
+  <si>
+    <t>Cash_sCharacterGacha</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1462,7 +1468,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,27 +1482,27 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>50000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,24 +1510,24 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>40000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1530,24 +1536,24 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>25000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1564,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,16 +1578,16 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1589,16 +1595,16 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>15000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1606,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1615,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1623,16 +1629,16 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,16 +1646,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>30000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1657,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1666,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1674,24 +1680,24 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1700,24 +1706,24 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>35000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1734,7 +1740,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1742,16 +1748,16 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>150</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1759,16 +1765,16 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>20000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1776,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -1793,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -1802,7 +1808,7 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>35000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1810,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1819,7 +1825,7 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1827,16 +1833,16 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>150</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,24 +1850,24 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>20000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -1870,15 +1876,15 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1887,15 +1893,15 @@
         <v>19</v>
       </c>
       <c r="E27">
-        <v>80000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -1904,15 +1910,15 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>800</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -1921,100 +1927,100 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>100000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>50000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31">
-        <v>500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>70000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>450</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>60000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -2023,15 +2029,15 @@
         <v>19</v>
       </c>
       <c r="E35">
-        <v>90000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -2040,100 +2046,100 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>650</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>50000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>30000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -2147,10 +2153,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2159,15 +2165,15 @@
         <v>19</v>
       </c>
       <c r="E43">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -2176,66 +2182,66 @@
         <v>20</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>10000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>75</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2244,15 +2250,15 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2266,10 +2272,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -2278,66 +2284,66 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>40000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2346,15 +2352,15 @@
         <v>20</v>
       </c>
       <c r="E54">
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -2363,15 +2369,15 @@
         <v>19</v>
       </c>
       <c r="E55">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -2380,66 +2386,66 @@
         <v>20</v>
       </c>
       <c r="E56">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>10000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
         <v>42</v>
       </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E59">
-        <v>400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -2448,15 +2454,15 @@
         <v>20</v>
       </c>
       <c r="E60">
-        <v>75</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2465,15 +2471,15 @@
         <v>19</v>
       </c>
       <c r="E61">
-        <v>20000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -2482,32 +2488,32 @@
         <v>20</v>
       </c>
       <c r="E62">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -2516,236 +2522,236 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>1200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>500</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>60000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>10000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>75</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>20000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>40000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>1000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2754,55 +2760,55 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>60000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E81">
         <v>75</v>
@@ -2810,44 +2816,44 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>20000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83">
-        <v>300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -2856,100 +2862,100 @@
         <v>20</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>40000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>1500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E87">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>60000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>100</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -2958,100 +2964,100 @@
         <v>20</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E92">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>75</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>20000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95">
-        <v>300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3060,100 +3066,100 @@
         <v>20</v>
       </c>
       <c r="E96">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97">
-        <v>40000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>1500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E99">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E100">
-        <v>60000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101">
-        <v>100</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -3162,100 +3168,100 @@
         <v>20</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E104">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E105">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E106">
-        <v>20000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107">
-        <v>300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
@@ -3264,151 +3270,151 @@
         <v>20</v>
       </c>
       <c r="E108">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109">
-        <v>40000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>1500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E111">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E112">
-        <v>60000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E113">
-        <v>100</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115">
-        <v>10000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E116">
-        <v>30</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
@@ -3417,40 +3423,618 @@
         <v>20</v>
       </c>
       <c r="E117">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <v>25000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124">
         <v>50</v>
       </c>
-      <c r="B119">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129">
         <v>4</v>
       </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>62</v>
+      </c>
+      <c r="E150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
         <v>51</v>
       </c>
-      <c r="E119">
+      <c r="E153">
         <v>750</v>
       </c>
     </row>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208585C0-071B-4CB9-98F3-3CEB63C028B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BC622-0781-45C2-9E7C-5304CA25A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -3372,7 +3372,7 @@
         <v>48</v>
       </c>
       <c r="E114">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3417,13 +3417,13 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E117">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3474,7 +3474,7 @@
         <v>48</v>
       </c>
       <c r="E120">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3519,13 +3519,13 @@
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E123">
-        <v>100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3576,7 +3576,7 @@
         <v>48</v>
       </c>
       <c r="E126">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3621,13 +3621,13 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E129">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3678,7 +3678,7 @@
         <v>48</v>
       </c>
       <c r="E132">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E135">
-        <v>100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>48</v>
       </c>
       <c r="E138">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3825,13 +3825,13 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E141">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3882,7 +3882,7 @@
         <v>48</v>
       </c>
       <c r="E144">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3927,13 +3927,13 @@
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E147">
-        <v>100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BC622-0781-45C2-9E7C-5304CA25A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F699B8-A764-4BAD-B00C-9653C903780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -725,7 +725,7 @@
         <v>31</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>180000</v>
@@ -1208,7 +1208,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>86400</v>
@@ -1296,7 +1296,7 @@
         <v>56</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>86400</v>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F699B8-A764-4BAD-B00C-9653C903780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F0299-3912-4F1C-B894-C6D9C5A898D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="69">
   <si>
     <t>ev2</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Cash_sCharacterGacha</t>
+  </si>
+  <si>
+    <t>Equip032102</t>
+  </si>
+  <si>
+    <t>Equip035002</t>
+  </si>
+  <si>
+    <t>Equip037101</t>
   </si>
 </sst>
 </file>
@@ -599,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1427,9 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1570,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>25000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,10 +1608,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>15000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1652,10 +1659,10 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>30000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1703,10 +1710,10 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>150</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1717,13 +1724,13 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2448,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E60">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="E61">
-        <v>80000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2485,10 +2492,10 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E62">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E63">
-        <v>100000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2519,10 +2526,10 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>50000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2536,10 +2543,10 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E65">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2553,10 +2560,10 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>70000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2570,10 +2577,10 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>450</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2587,44 +2594,44 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E68">
-        <v>60000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>90000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E70">
-        <v>650</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2632,24 +2639,24 @@
         <v>9</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>700</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -2658,7 +2665,7 @@
         <v>19</v>
       </c>
       <c r="E72">
-        <v>50000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,16 +2673,16 @@
         <v>10</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E73">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,16 +2690,16 @@
         <v>10</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>30000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F0299-3912-4F1C-B894-C6D9C5A898D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D956C72-1049-4A04-9A2C-B4A0971F889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -1436,7 +1436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2648,7 +2650,7 @@
         <v>19</v>
       </c>
       <c r="E71">
-        <v>1000000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D956C72-1049-4A04-9A2C-B4A0971F889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BBB24B-B917-4FEF-BB85-9681633F787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="74">
   <si>
     <t>ev2</t>
   </si>
@@ -243,6 +243,21 @@
   </si>
   <si>
     <t>Equip037101</t>
+  </si>
+  <si>
+    <t>Equip036002</t>
+  </si>
+  <si>
+    <t>Equip031002</t>
+  </si>
+  <si>
+    <t>Pet_0019</t>
+  </si>
+  <si>
+    <t>Pet_0027</t>
+  </si>
+  <si>
+    <t>Cash_sEquipGacha</t>
   </si>
 </sst>
 </file>
@@ -609,7 +624,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,7 +810,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>180000</v>
@@ -1434,11 +1449,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1477,7 +1490,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,7 +1507,7 @@
         <v>51</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,7 +1626,7 @@
         <v>51</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1766,7 +1779,7 @@
         <v>19</v>
       </c>
       <c r="E19">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1780,10 +1793,10 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1814,10 +1827,10 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>20000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1831,10 +1844,10 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>150</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1848,10 +1861,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>35000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1882,10 +1895,10 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>150</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1899,10 +1912,10 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>20000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1916,10 +1929,10 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,10 +1946,10 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>20000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1950,10 +1963,10 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30">
-        <v>150</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1967,10 +1980,10 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>20000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1981,13 +1994,13 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2001,10 +2014,10 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>20000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2021,7 +2034,7 @@
         <v>20</v>
       </c>
       <c r="E34">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="E35">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2052,10 +2065,10 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E36">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2069,10 +2082,10 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2086,10 +2099,10 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>150</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2103,10 +2116,10 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E39">
-        <v>20000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2117,13 +2130,13 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E40">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2140,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="E41">
-        <v>20000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2154,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>150</v>
@@ -2171,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>20000</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2188,10 +2201,10 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>150</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2205,10 +2218,10 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E45">
-        <v>20000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2219,13 +2232,13 @@
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E46">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2239,10 +2252,10 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>20000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2259,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2276,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="E49">
-        <v>20000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2290,185 +2303,185 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E51">
-        <v>20000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>150</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E53">
-        <v>20000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E54">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E56">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>150</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E59">
-        <v>20000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2477,15 +2490,15 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E61">
-        <v>1000000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -2494,134 +2507,134 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>500</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E64">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
         <v>3</v>
       </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E66">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68">
         <v>3</v>
       </c>
-      <c r="B68">
-        <v>9</v>
-      </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E69">
-        <v>2200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -2630,15 +2643,15 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>550</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2650,109 +2663,109 @@
         <v>19</v>
       </c>
       <c r="E71">
-        <v>990000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>600000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E74">
-        <v>1250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>150</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E77">
-        <v>30000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2760,16 +2773,16 @@
         <v>40</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E78">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2777,16 +2790,16 @@
         <v>40</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2794,24 +2807,24 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E80">
-        <v>10000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>41</v>
@@ -2820,15 +2833,15 @@
         <v>47</v>
       </c>
       <c r="E81">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -2837,15 +2850,15 @@
         <v>20</v>
       </c>
       <c r="E82">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -2854,32 +2867,32 @@
         <v>19</v>
       </c>
       <c r="E83">
-        <v>20000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E84">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -2888,75 +2901,75 @@
         <v>20</v>
       </c>
       <c r="E85">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E86">
-        <v>40000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>500</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E89">
-        <v>60000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2964,16 +2977,16 @@
         <v>42</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E90">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2981,16 +2994,16 @@
         <v>42</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2998,24 +3011,24 @@
         <v>42</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E92">
-        <v>10000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>41</v>
@@ -3024,15 +3037,15 @@
         <v>47</v>
       </c>
       <c r="E93">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -3041,15 +3054,15 @@
         <v>20</v>
       </c>
       <c r="E94">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -3058,32 +3071,32 @@
         <v>19</v>
       </c>
       <c r="E95">
-        <v>20000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E96">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -3092,75 +3105,75 @@
         <v>20</v>
       </c>
       <c r="E97">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E98">
-        <v>40000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E99">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100">
-        <v>500</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E101">
-        <v>60000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3168,16 +3181,16 @@
         <v>43</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E102">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3185,16 +3198,16 @@
         <v>43</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3202,58 +3215,58 @@
         <v>43</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E104">
-        <v>10000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E106">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
@@ -3262,32 +3275,32 @@
         <v>19</v>
       </c>
       <c r="E107">
-        <v>20000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E108">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
@@ -3296,75 +3309,75 @@
         <v>20</v>
       </c>
       <c r="E109">
-        <v>100</v>
+        <v>950</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E110">
-        <v>40000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E111">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112">
-        <v>500</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E113">
-        <v>60000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3372,7 +3385,7 @@
         <v>44</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>41</v>
@@ -3381,7 +3394,7 @@
         <v>48</v>
       </c>
       <c r="E114">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3389,16 +3402,16 @@
         <v>44</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E115">
-        <v>75</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3406,24 +3419,24 @@
         <v>44</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E116">
-        <v>20000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>41</v>
@@ -3432,32 +3445,32 @@
         <v>48</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E118">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
         <v>18</v>
@@ -3466,15 +3479,15 @@
         <v>19</v>
       </c>
       <c r="E119">
-        <v>40000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>41</v>
@@ -3483,15 +3496,15 @@
         <v>48</v>
       </c>
       <c r="E120">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>18</v>
@@ -3500,32 +3513,32 @@
         <v>20</v>
       </c>
       <c r="E121">
-        <v>500</v>
+        <v>950</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E122">
-        <v>60000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>41</v>
@@ -3534,41 +3547,41 @@
         <v>48</v>
       </c>
       <c r="E123">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E125">
-        <v>10000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3576,7 +3589,7 @@
         <v>45</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
         <v>41</v>
@@ -3585,7 +3598,7 @@
         <v>48</v>
       </c>
       <c r="E126">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3593,16 +3606,16 @@
         <v>45</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E127">
-        <v>75</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3610,24 +3623,24 @@
         <v>45</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E128">
-        <v>20000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>41</v>
@@ -3636,32 +3649,32 @@
         <v>48</v>
       </c>
       <c r="E129">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E130">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
@@ -3670,15 +3683,15 @@
         <v>19</v>
       </c>
       <c r="E131">
-        <v>40000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
@@ -3687,15 +3700,15 @@
         <v>48</v>
       </c>
       <c r="E132">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>18</v>
@@ -3704,32 +3717,32 @@
         <v>20</v>
       </c>
       <c r="E133">
-        <v>500</v>
+        <v>950</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E134">
-        <v>60000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>41</v>
@@ -3738,41 +3751,41 @@
         <v>48</v>
       </c>
       <c r="E135">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E136">
-        <v>50</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E137">
-        <v>10000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3780,7 +3793,7 @@
         <v>46</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
         <v>41</v>
@@ -3789,7 +3802,7 @@
         <v>48</v>
       </c>
       <c r="E138">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3797,16 +3810,16 @@
         <v>46</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E139">
-        <v>75</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3814,41 +3827,41 @@
         <v>46</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E140">
-        <v>20000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E141">
-        <v>2000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
@@ -3857,15 +3870,15 @@
         <v>20</v>
       </c>
       <c r="E142">
-        <v>100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
@@ -3874,177 +3887,24 @@
         <v>19</v>
       </c>
       <c r="E143">
-        <v>40000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E144">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>46</v>
-      </c>
-      <c r="B145">
-        <v>8</v>
-      </c>
-      <c r="C145" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" t="s">
-        <v>20</v>
-      </c>
-      <c r="E145">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>46</v>
-      </c>
-      <c r="B146">
-        <v>9</v>
-      </c>
-      <c r="C146" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>46</v>
-      </c>
-      <c r="B147">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" t="s">
-        <v>48</v>
-      </c>
-      <c r="E147">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>46</v>
-      </c>
-      <c r="B148">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>46</v>
-      </c>
-      <c r="B149">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>41</v>
-      </c>
-      <c r="D150" t="s">
-        <v>62</v>
-      </c>
-      <c r="E150">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" t="s">
-        <v>20</v>
-      </c>
-      <c r="E151">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>50</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>50</v>
-      </c>
-      <c r="B153">
-        <v>4</v>
-      </c>
-      <c r="C153" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" t="s">
-        <v>51</v>
-      </c>
-      <c r="E153">
-        <v>750</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BBB24B-B917-4FEF-BB85-9681633F787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B5C31-DB33-4E23-832E-CEC29A35353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
@@ -1451,7 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2629,7 +2631,7 @@
         <v>47</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2680,7 +2682,7 @@
         <v>47</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2782,7 +2784,7 @@
         <v>47</v>
       </c>
       <c r="E78">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2833,7 +2835,7 @@
         <v>47</v>
       </c>
       <c r="E81">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2884,7 +2886,7 @@
         <v>47</v>
       </c>
       <c r="E84">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2986,7 +2988,7 @@
         <v>47</v>
       </c>
       <c r="E90">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3037,7 +3039,7 @@
         <v>47</v>
       </c>
       <c r="E93">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3088,7 +3090,7 @@
         <v>47</v>
       </c>
       <c r="E96">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3190,7 +3192,7 @@
         <v>47</v>
       </c>
       <c r="E102">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3241,7 +3243,7 @@
         <v>48</v>
       </c>
       <c r="E105">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3292,7 +3294,7 @@
         <v>48</v>
       </c>
       <c r="E108">
-        <v>2000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3343,7 +3345,7 @@
         <v>48</v>
       </c>
       <c r="E111">
-        <v>3000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3394,7 +3396,7 @@
         <v>48</v>
       </c>
       <c r="E114">
-        <v>4000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3445,7 +3447,7 @@
         <v>48</v>
       </c>
       <c r="E117">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,7 +3498,7 @@
         <v>48</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3547,7 +3549,7 @@
         <v>48</v>
       </c>
       <c r="E123">
-        <v>3000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3598,7 +3600,7 @@
         <v>48</v>
       </c>
       <c r="E126">
-        <v>4000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3649,7 +3651,7 @@
         <v>48</v>
       </c>
       <c r="E129">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3700,7 +3702,7 @@
         <v>48</v>
       </c>
       <c r="E132">
-        <v>2000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3751,7 +3753,7 @@
         <v>48</v>
       </c>
       <c r="E135">
-        <v>3000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3802,7 +3804,7 @@
         <v>48</v>
       </c>
       <c r="E138">
-        <v>4000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B5C31-DB33-4E23-832E-CEC29A35353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A082C64-230E-43E0-98A3-D698C1822034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1451,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3872,7 +3872,7 @@
         <v>20</v>
       </c>
       <c r="E142">
-        <v>1800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3889,7 +3889,7 @@
         <v>19</v>
       </c>
       <c r="E143">
-        <v>990000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3906,7 +3906,7 @@
         <v>51</v>
       </c>
       <c r="E144">
-        <v>1200</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A082C64-230E-43E0-98A3-D698C1822034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF4FD6-395A-4F0F-9346-60753EAF99E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -623,9 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1451,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2597,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2614,7 +2612,7 @@
         <v>19</v>
       </c>
       <c r="E68">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF4FD6-395A-4F0F-9346-60753EAF99E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C6FF8-20FC-4F64-A30A-54EBA5EC1A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3915,9 +3915,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06080CBE-0BF8-4373-BF22-7E667F747A57}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3942,7 +3944,7 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3950,31 +3952,111 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="B7">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15000</v>
+      </c>
+      <c r="B9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25000</v>
+      </c>
+      <c r="B10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50000</v>
+      </c>
+      <c r="B11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>80000</v>
+      </c>
+      <c r="B12">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>120000</v>
+      </c>
+      <c r="B13">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>170000</v>
+      </c>
+      <c r="B14">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>250000</v>
+      </c>
+      <c r="B15">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>350000</v>
+      </c>
+      <c r="B16">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>500000</v>
+      </c>
+      <c r="B17">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C6FF8-20FC-4F64-A30A-54EBA5EC1A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5B5C4-C452-41BC-9BD3-F6630EA9E98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -685,7 +687,7 @@
         <v>300</v>
       </c>
       <c r="E2">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -712,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.33329999999999999</v>
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -723,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>0.66659999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -767,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>180000</v>
+        <v>259200</v>
       </c>
       <c r="E4">
-        <v>691200</v>
+        <v>432000</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -797,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -811,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>180000</v>
+        <v>432000</v>
       </c>
       <c r="E5">
-        <v>172800</v>
+        <v>604800</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -841,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -858,7 +860,7 @@
         <v>64800</v>
       </c>
       <c r="E6">
-        <v>86400</v>
+        <v>129600</v>
       </c>
       <c r="F6">
         <v>2023</v>
@@ -885,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -902,10 +904,10 @@
         <v>604800</v>
       </c>
       <c r="E7">
-        <v>2592000</v>
+        <v>1296000</v>
       </c>
       <c r="F7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -914,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J7">
         <v>12</v>
@@ -929,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <v>0.33329999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -943,7 +945,7 @@
         <v>600</v>
       </c>
       <c r="E8">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="F8">
         <v>2023</v>
@@ -970,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -984,7 +986,7 @@
         <v>600</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="F9">
         <v>2023</v>
@@ -1011,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1022,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>600</v>
+        <v>259200</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>518400</v>
       </c>
       <c r="F10">
         <v>2023</v>
@@ -1052,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>600</v>
+        <v>10800</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>172800</v>
       </c>
       <c r="F11">
         <v>2023</v>
@@ -1093,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1104,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>600</v>
+        <v>21600</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>259200</v>
       </c>
       <c r="F12">
         <v>2023</v>
@@ -1134,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1145,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>129600</v>
       </c>
       <c r="F13">
         <v>2023</v>
@@ -1175,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1186,13 +1188,13 @@
         <v>54</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>86400</v>
+        <v>172800</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>388800</v>
       </c>
       <c r="F14">
         <v>2023</v>
@@ -1219,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1230,13 +1232,13 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>86400</v>
+        <v>900</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>259200</v>
       </c>
       <c r="F15">
         <v>2023</v>
@@ -1263,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1277,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="E16">
-        <v>300</v>
+        <v>216000</v>
       </c>
       <c r="F16">
         <v>2023</v>
@@ -1307,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1321,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>86400</v>
+        <v>54000</v>
       </c>
       <c r="E17">
-        <v>300</v>
+        <v>226800</v>
       </c>
       <c r="F17">
         <v>2023</v>
@@ -1351,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1365,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>86400</v>
+        <v>1200</v>
       </c>
       <c r="E18">
-        <v>300</v>
+        <v>259200</v>
       </c>
       <c r="F18">
         <v>2023</v>
@@ -1395,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1412,7 +1414,7 @@
         <v>604800</v>
       </c>
       <c r="F19">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1421,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J19">
         <v>12</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.33329999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3917,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06080CBE-0BF8-4373-BF22-7E667F747A57}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Event.xlsx
+++ b/Excel/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5B5C4-C452-41BC-9BD3-F6630EA9E98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963003BC-C249-4483-8B31-F8602B90A94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4309CADF-FF23-49E3-9123-A93F4C6AE535}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -623,9 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80608E75-A5C0-465B-AF44-ED5B52C77D29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -942,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="E8">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F8">
         <v>2023</v>
@@ -1451,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C28FEE8-6C9A-4062-B33B-0AEC812CC6BA}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
